--- a/PaperNeural/Results/ResultsMar2017-t-SNE_MI_3000_LR_700_PE_28.xlsx
+++ b/PaperNeural/Results/ResultsMar2017-t-SNE_MI_3000_LR_700_PE_28.xlsx
@@ -7290,34 +7290,56 @@
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="63" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="J12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="63"/>
+      <c r="N12" s="63" t="n">
+        <v>0.5847953216374269</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
         <v>#DIV/0!</v>
@@ -7326,9 +7348,15 @@
       <c r="I13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="J13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
         <v>#DIV/0!</v>
@@ -7340,9 +7368,15 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
         <v>#DIV/0!</v>
@@ -7351,9 +7385,15 @@
       <c r="I14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="J14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.9814814814814815</v>
+      </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
         <v>#DIV/0!</v>
@@ -7424,34 +7464,56 @@
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="63" t="n">
+        <v>21.052631578947366</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+      <c r="J18" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="63"/>
+      <c r="N18" s="63" t="n">
+        <v>0.5847953216374269</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="61"/>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
         <v>#DIV/0!</v>
@@ -7460,9 +7522,15 @@
       <c r="I19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="J19" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
         <v>#DIV/0!</v>
@@ -7474,9 +7542,15 @@
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="C20" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
         <v>#DIV/0!</v>
@@ -7485,9 +7559,15 @@
       <c r="I20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="J20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>0.9814814814814815</v>
+      </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
         <v>#DIV/0!</v>
@@ -7558,34 +7638,56 @@
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="C24" s="40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="63" t="n">
+        <v>26.31578947368421</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="J24" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="63"/>
+      <c r="N24" s="63" t="n">
+        <v>2.923976608187134</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E25" s="40" t="n">
+        <v>0.375</v>
+      </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
         <v>#DIV/0!</v>
@@ -7594,9 +7696,15 @@
       <c r="I25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
+      <c r="J25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
         <v>#DIV/0!</v>
@@ -7608,9 +7716,15 @@
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.8333333333333334</v>
+      </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
         <v>#DIV/0!</v>
@@ -7619,9 +7733,15 @@
       <c r="I26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
+      <c r="J26" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.9259259259259259</v>
+      </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
         <v>#DIV/0!</v>
@@ -7961,34 +8081,56 @@
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="63" t="n">
+        <v>31.57894736842105</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="J12" s="40" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.044444444444444446</v>
+      </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="63"/>
+      <c r="N12" s="63" t="n">
+        <v>7.602339181286549</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.125</v>
+      </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
         <v>#DIV/0!</v>
@@ -7997,9 +8139,15 @@
       <c r="I13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="J13" s="40" t="n">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
         <v>#DIV/0!</v>
@@ -8011,9 +8159,15 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
         <v>#DIV/0!</v>
@@ -8022,9 +8176,15 @@
       <c r="I14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="J14" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.8703703703703703</v>
+      </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
         <v>#DIV/0!</v>
@@ -8095,34 +8255,56 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.2</v>
+      </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="63" t="n">
+        <v>42.10526315789473</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+      <c r="J18" s="40" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="63"/>
+      <c r="N18" s="63" t="n">
+        <v>12.280701754385964</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="61"/>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.25</v>
+      </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
         <v>#DIV/0!</v>
@@ -8131,9 +8313,15 @@
       <c r="I19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="J19" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
         <v>#DIV/0!</v>
@@ -8145,9 +8333,15 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
         <v>#DIV/0!</v>
@@ -8156,9 +8350,15 @@
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="J20" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>0.9074074074074074</v>
+      </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
         <v>#DIV/0!</v>
@@ -8229,34 +8429,56 @@
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="C24" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.2</v>
+      </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="63" t="n">
+        <v>36.84210526315789</v>
+      </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="J24" s="40" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="63"/>
+      <c r="N24" s="63" t="n">
+        <v>10.526315789473683</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="C25" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="40" t="n">
+        <v>0.125</v>
+      </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
         <v>#DIV/0!</v>
@@ -8265,9 +8487,15 @@
       <c r="I25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
+      <c r="J25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.06944444444444445</v>
+      </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
         <v>#DIV/0!</v>
@@ -8279,9 +8507,15 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
         <v>#DIV/0!</v>
@@ -8290,9 +8524,15 @@
       <c r="I26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
+      <c r="J26" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.8148148148148148</v>
+      </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
         <v>#DIV/0!</v>
@@ -8632,34 +8872,56 @@
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="63" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="J12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="63"/>
+      <c r="N12" s="63" t="n">
+        <v>0.5847953216374269</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
         <v>#DIV/0!</v>
@@ -8668,9 +8930,15 @@
       <c r="I13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="J13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
         <v>#DIV/0!</v>
@@ -8682,9 +8950,15 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
         <v>#DIV/0!</v>
@@ -8693,9 +8967,15 @@
       <c r="I14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="J14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.9814814814814815</v>
+      </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
         <v>#DIV/0!</v>
@@ -8766,34 +9046,56 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="63" t="n">
+        <v>15.789473684210526</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+      <c r="J18" s="40" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.022222222222222223</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="63"/>
+      <c r="N18" s="63" t="n">
+        <v>1.7543859649122806</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="61"/>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
         <v>#DIV/0!</v>
@@ -8802,9 +9104,15 @@
       <c r="I19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="J19" s="40" t="n">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
         <v>#DIV/0!</v>
@@ -8816,9 +9124,15 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
         <v>#DIV/0!</v>
@@ -8827,9 +9141,15 @@
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="J20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
         <v>#DIV/0!</v>
@@ -8900,34 +9220,56 @@
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="C24" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.2</v>
+      </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="63" t="n">
+        <v>26.31578947368421</v>
+      </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="J24" s="40" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="63"/>
+      <c r="N24" s="63" t="n">
+        <v>2.923976608187134</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E25" s="40" t="n">
+        <v>0.125</v>
+      </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
         <v>#DIV/0!</v>
@@ -8936,9 +9278,15 @@
       <c r="I25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
+      <c r="J25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
         <v>#DIV/0!</v>
@@ -8950,9 +9298,15 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
         <v>#DIV/0!</v>
@@ -8961,9 +9315,15 @@
       <c r="I26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
+      <c r="J26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.9444444444444444</v>
+      </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
         <v>#DIV/0!</v>
@@ -9303,34 +9663,56 @@
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="63" t="n">
+        <v>10.526315789473683</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="J12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="63"/>
+      <c r="N12" s="63" t="n">
+        <v>0.5847953216374269</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.125</v>
+      </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
         <v>#DIV/0!</v>
@@ -9339,9 +9721,15 @@
       <c r="I13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="J13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
         <v>#DIV/0!</v>
@@ -9353,9 +9741,15 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
         <v>#DIV/0!</v>
@@ -9364,9 +9758,15 @@
       <c r="I14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="J14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.9814814814814815</v>
+      </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
         <v>#DIV/0!</v>
@@ -9437,34 +9837,56 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="63" t="n">
+        <v>26.31578947368421</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+      <c r="J18" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="63"/>
+      <c r="N18" s="63" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="61"/>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.25</v>
+      </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
         <v>#DIV/0!</v>
@@ -9473,9 +9895,15 @@
       <c r="I19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="J19" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
         <v>#DIV/0!</v>
@@ -9487,9 +9915,15 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
         <v>#DIV/0!</v>
@@ -9498,9 +9932,15 @@
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="J20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
         <v>#DIV/0!</v>
@@ -9571,34 +10011,56 @@
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="C24" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.2</v>
+      </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="63" t="n">
+        <v>21.052631578947366</v>
+      </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="J24" s="40" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="63"/>
+      <c r="N24" s="63" t="n">
+        <v>3.508771929824561</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
         <v>#DIV/0!</v>
@@ -9607,9 +10069,15 @@
       <c r="I25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
+      <c r="J25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
         <v>#DIV/0!</v>
@@ -9621,9 +10089,15 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.8333333333333334</v>
+      </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
         <v>#DIV/0!</v>
@@ -9632,9 +10106,15 @@
       <c r="I26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
+      <c r="J26" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.9629629629629629</v>
+      </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
         <v>#DIV/0!</v>
@@ -9970,34 +10450,56 @@
       <c r="B12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.2</v>
+      </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="63" t="n">
+        <v>10.526315789473683</v>
+      </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="J12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="63"/>
+      <c r="N12" s="63" t="n">
+        <v>1.1695906432748537</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
         <v>#DIV/0!</v>
@@ -10006,9 +10508,15 @@
       <c r="I13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="J13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
         <v>#DIV/0!</v>
@@ -10020,9 +10528,15 @@
       <c r="B14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>0.8333333333333334</v>
+      </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
         <v>#DIV/0!</v>
@@ -10031,9 +10545,15 @@
       <c r="I14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="J14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.9814814814814815</v>
+      </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
         <v>#DIV/0!</v>
@@ -10104,34 +10624,56 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="63" t="n">
+        <v>5.263157894736842</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+      <c r="J18" s="40" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.022222222222222223</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="63"/>
+      <c r="N18" s="63" t="n">
+        <v>1.1695906432748537</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="61"/>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
         <v>#DIV/0!</v>
@@ -10140,9 +10682,15 @@
       <c r="I19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="J19" s="40" t="n">
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
         <v>#DIV/0!</v>
@@ -10154,9 +10702,15 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
         <v>#DIV/0!</v>
@@ -10165,9 +10719,15 @@
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="J20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
         <v>#DIV/0!</v>
@@ -10238,34 +10798,56 @@
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="C24" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.4</v>
+      </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="63" t="n">
+        <v>52.63157894736842</v>
+      </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="J24" s="40" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.044444444444444446</v>
+      </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="63"/>
+      <c r="N24" s="63" t="n">
+        <v>3.508771929824561</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="40" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
         <v>#DIV/0!</v>
@@ -10274,9 +10856,15 @@
       <c r="I25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
+      <c r="J25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
         <v>#DIV/0!</v>
@@ -10288,9 +10876,15 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
         <v>#DIV/0!</v>
@@ -10299,9 +10893,15 @@
       <c r="I26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
+      <c r="J26" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.9444444444444444</v>
+      </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
         <v>#DIV/0!</v>
@@ -10464,35 +11064,57 @@
       <c r="B6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="63"/>
+      <c r="G6" s="63" t="n">
+        <v>21.052631578947366</v>
+      </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="J6" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M6" s="3" t="e">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="63"/>
+      <c r="N6" s="63" t="n">
+        <v>1.1695906432748537</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="61"/>
       <c r="B7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
         <v>#DIV/0!</v>
@@ -10502,9 +11124,15 @@
       <c r="I7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+      <c r="J7" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="40" t="n">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
         <v>#DIV/0!</v>
@@ -10516,9 +11144,15 @@
       <c r="B8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E8" s="40" t="n">
+        <v>0.8333333333333334</v>
+      </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
         <v>#DIV/0!</v>
@@ -10528,9 +11162,15 @@
       <c r="I8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="J8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>0.9814814814814815</v>
+      </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
         <v>#DIV/0!</v>
@@ -10601,34 +11241,56 @@
       <c r="B12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="63" t="n">
+        <v>26.31578947368421</v>
+      </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="J12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="63"/>
+      <c r="N12" s="63" t="n">
+        <v>1.1695906432748537</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.25</v>
+      </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
         <v>#DIV/0!</v>
@@ -10637,9 +11299,15 @@
       <c r="I13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="J13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
         <v>#DIV/0!</v>
@@ -10651,9 +11319,15 @@
       <c r="B14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
         <v>#DIV/0!</v>
@@ -10662,9 +11336,15 @@
       <c r="I14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="J14" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.9629629629629629</v>
+      </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
         <v>#DIV/0!</v>
@@ -10735,34 +11415,56 @@
       <c r="B18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="63" t="n">
+        <v>15.789473684210526</v>
+      </c>
       <c r="I18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+      <c r="J18" s="40" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="63"/>
+      <c r="N18" s="63" t="n">
+        <v>4.093567251461988</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="61"/>
       <c r="B19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.125</v>
+      </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
         <v>#DIV/0!</v>
@@ -10771,9 +11473,15 @@
       <c r="I19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="J19" s="40" t="n">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
         <v>#DIV/0!</v>
@@ -10785,9 +11493,15 @@
       <c r="B20" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
         <v>#DIV/0!</v>
@@ -10796,9 +11510,15 @@
       <c r="I20" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="J20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>0.9814814814814815</v>
+      </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
         <v>#DIV/0!</v>
@@ -10869,34 +11589,56 @@
       <c r="B24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="C24" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.2</v>
+      </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="63" t="n">
+        <v>21.052631578947366</v>
+      </c>
       <c r="I24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="J24" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="63"/>
+      <c r="N24" s="63" t="n">
+        <v>5.263157894736842</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
       <c r="B25" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E25" s="40" t="n">
+        <v>0.125</v>
+      </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
         <v>#DIV/0!</v>
@@ -10905,9 +11647,15 @@
       <c r="I25" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
+      <c r="J25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
         <v>#DIV/0!</v>
@@ -10919,9 +11667,15 @@
       <c r="B26" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.8333333333333334</v>
+      </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
         <v>#DIV/0!</v>
@@ -10930,9 +11684,15 @@
       <c r="I26" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
+      <c r="J26" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.9074074074074074</v>
+      </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
         <v>#DIV/0!</v>
@@ -11102,26 +11862,42 @@
       <c r="B6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="40" t="n">
+        <v>0.4</v>
+      </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="67"/>
+      <c r="G6" s="67" t="n">
+        <v>21.052631578947366</v>
+      </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="J6" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M6" s="3" t="e">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="63"/>
+      <c r="N6" s="63" t="n">
+        <v>1.1695906432748537</v>
+      </c>
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -11129,9 +11905,15 @@
       <c r="B7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="40" t="n">
+        <v>0.125</v>
+      </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
         <v>#DIV/0!</v>
@@ -11141,9 +11923,15 @@
       <c r="I7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+      <c r="J7" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
         <v>#DIV/0!</v>
@@ -11156,9 +11944,15 @@
       <c r="B8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E8" s="40" t="n">
+        <v>0.8333333333333334</v>
+      </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
         <v>#DIV/0!</v>
@@ -11168,9 +11962,15 @@
       <c r="I8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="J8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>0.9629629629629629</v>
+      </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
         <v>#DIV/0!</v>
@@ -11241,34 +12041,56 @@
       <c r="B12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="63" t="n">
+        <v>5.263157894736842</v>
+      </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="J12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="63"/>
+      <c r="N12" s="63" t="n">
+        <v>0.5847953216374269</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.125</v>
+      </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
         <v>#DIV/0!</v>
@@ -11277,9 +12099,15 @@
       <c r="I13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="J13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
         <v>#DIV/0!</v>
@@ -11291,9 +12119,15 @@
       <c r="B14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
         <v>#DIV/0!</v>
@@ -11302,9 +12136,15 @@
       <c r="I14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="J14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.9814814814814815</v>
+      </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
         <v>#DIV/0!</v>
@@ -11375,34 +12215,56 @@
       <c r="B18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="63" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+      <c r="J18" s="40" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="63"/>
+      <c r="N18" s="63" t="n">
+        <v>1.1695906432748537</v>
+      </c>
     </row>
     <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="61"/>
       <c r="B19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
         <v>#DIV/0!</v>
@@ -11411,9 +12273,15 @@
       <c r="I19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="J19" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
         <v>#DIV/0!</v>
@@ -11425,9 +12293,15 @@
       <c r="B20" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
         <v>#DIV/0!</v>
@@ -11436,9 +12310,15 @@
       <c r="I20" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="J20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>0.9814814814814815</v>
+      </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
         <v>#DIV/0!</v>
@@ -11509,34 +12389,56 @@
       <c r="B24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="C24" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="63" t="n">
+        <v>26.31578947368421</v>
+      </c>
       <c r="I24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="J24" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="63"/>
+      <c r="N24" s="63" t="n">
+        <v>3.508771929824561</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
       <c r="B25" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E25" s="40" t="n">
+        <v>0.125</v>
+      </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
         <v>#DIV/0!</v>
@@ -11545,9 +12447,15 @@
       <c r="I25" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
+      <c r="J25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
         <v>#DIV/0!</v>
@@ -11559,9 +12467,15 @@
       <c r="B26" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
         <v>#DIV/0!</v>
@@ -11570,9 +12484,15 @@
       <c r="I26" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
+      <c r="J26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.9259259259259259</v>
+      </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
         <v>#DIV/0!</v>
